--- a/10b/5_2023_01_08/zold_vilag.xlsx
+++ b/10b/5_2023_01_08/zold_vilag.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\OneDrive\Desktop\bullshitBundle\kossuthrepo\10b\5_2023_01_08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A65939-C50D-4555-9008-0B735D4747C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AA4B19-573B-4E75-A27E-1E94D6CD9960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zöld világ konferencia" sheetId="1" r:id="rId1"/>
@@ -736,6 +736,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -745,14 +750,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,7 +776,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1077,28 +1077,28 @@
   </sheetPr>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.73046875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.73046875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>176</v>
       </c>
@@ -1123,16 +1123,16 @@
       <c r="H1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="20">
+      <c r="K1" s="20"/>
+      <c r="L1" s="16">
         <f>COUNTA(A2:A101)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
@@ -1154,12 +1154,12 @@
       <c r="G2" s="4">
         <v>28000</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="15">
         <f>$L$14+$L$15+IF(E2="Igen",$L$16,0)+IF(F2="Igen",$L$18,$L$17)</f>
         <v>65500</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
@@ -1181,11 +1181,11 @@
       <c r="G3" s="4">
         <v>23000</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H66" si="0">$L$14+$L$15+IF(E3="Igen",$L$16,0)+IF(F3="Igen",$L$18,$L$17)</f>
         <v>30500</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="18" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="7" t="s">
@@ -1195,7 +1195,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
@@ -1217,11 +1217,11 @@
       <c r="G4" s="4">
         <v>22000</v>
       </c>
-      <c r="H4" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-      <c r="J4" s="15"/>
+      <c r="H4" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+      <c r="J4" s="18"/>
       <c r="K4" s="7" t="s">
         <v>32</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -1251,11 +1251,11 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="7" t="s">
         <v>33</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
@@ -1285,11 +1285,11 @@
       <c r="G6" s="4">
         <v>13000</v>
       </c>
-      <c r="H6" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-      <c r="J6" s="15"/>
+      <c r="H6" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+      <c r="J6" s="18"/>
       <c r="K6" s="7" t="s">
         <v>178</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -1319,12 +1319,12 @@
       <c r="G7" s="4">
         <v>28000</v>
       </c>
-      <c r="H7" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1346,22 +1346,22 @@
       <c r="G8" s="4">
         <v>9000</v>
       </c>
-      <c r="H8" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="H8" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>62</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="15">
         <f>L3/$L$1</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1383,20 +1383,20 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="15">
         <f t="shared" ref="L9:L11" si="1">L4/$L$1</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1418,20 +1418,20 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="15">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>124</v>
       </c>
@@ -1453,20 +1453,20 @@
       <c r="G11" s="4">
         <v>26000</v>
       </c>
-      <c r="H11" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-      <c r="J11" s="15"/>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+      <c r="J11" s="18"/>
       <c r="K11" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -1488,11 +1488,11 @@
       <c r="G12" s="4">
         <v>30000</v>
       </c>
-      <c r="H12" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-      <c r="J12" s="15"/>
+      <c r="H12" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+      <c r="J12" s="18"/>
       <c r="K12" s="7" t="s">
         <v>179</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1522,12 +1522,12 @@
       <c r="G13" s="4">
         <v>25000</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="15">
         <f t="shared" si="0"/>
         <v>69500</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -1549,22 +1549,22 @@
       <c r="G14" s="4">
         <v>25000</v>
       </c>
-      <c r="H14" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="H14" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+      <c r="J14" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="15">
         <f>SUM(L8:L12)</f>
         <v>9500</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>115</v>
       </c>
@@ -1586,11 +1586,11 @@
       <c r="G15" s="4">
         <v>6000</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="7" t="s">
         <v>35</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1620,11 +1620,11 @@
       <c r="G16" s="4">
         <v>18000</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="7" t="s">
         <v>29</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -1654,11 +1654,11 @@
       <c r="G17" s="4">
         <v>23000</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="15">
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -1688,11 +1688,11 @@
       <c r="G18" s="4">
         <v>24000</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="15">
         <f t="shared" si="0"/>
         <v>69500</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="7" t="s">
         <v>30</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1722,12 +1722,12 @@
       <c r="G19" s="4">
         <v>9000</v>
       </c>
-      <c r="H19" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H19" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -1749,20 +1749,20 @@
       <c r="G20" s="4">
         <v>13000</v>
       </c>
-      <c r="H20" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-      <c r="J20" s="18" t="s">
+      <c r="H20" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19">
+      <c r="K20" s="17"/>
+      <c r="L20" s="15">
         <f>SUM(G2:G101)</f>
         <v>1482000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1784,20 +1784,20 @@
       <c r="G21" s="4">
         <v>20000</v>
       </c>
-      <c r="H21" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-      <c r="J21" s="18" t="s">
+      <c r="H21" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19">
+      <c r="K21" s="17"/>
+      <c r="L21" s="15">
         <f>SUM(H2:H101)</f>
         <v>5455000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1819,19 +1819,19 @@
       <c r="G22" s="4">
         <v>13000</v>
       </c>
-      <c r="H22" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-      <c r="J22" s="18" t="s">
+      <c r="H22" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="18"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1853,19 +1853,19 @@
       <c r="G23" s="4">
         <v>14000</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="18"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>130</v>
       </c>
@@ -1887,19 +1887,19 @@
       <c r="G24" s="4">
         <v>25000</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K24" s="18"/>
+      <c r="K24" s="17"/>
       <c r="L24" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1921,19 +1921,19 @@
       <c r="G25" s="4">
         <v>0</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="15">
         <f t="shared" si="0"/>
         <v>69500</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>97</v>
       </c>
@@ -1955,20 +1955,20 @@
       <c r="G26" s="4">
         <v>0</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="15">
         <f t="shared" si="0"/>
         <v>69500</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="18"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="13">
         <f>COUNTIF(C2:C101,"Budapest")</f>
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -1990,19 +1990,19 @@
       <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -2024,20 +2024,20 @@
       <c r="G28" s="4">
         <v>24000</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="13">
         <f>COUNTIFS(C2:C101,"Budapest",E2:E101,"Igen")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -2059,20 +2059,20 @@
       <c r="G29" s="4">
         <v>7000</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="13">
         <f>SUMIF(C2:C101,"Eger",H2:H101)</f>
         <v>200500</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -2094,19 +2094,19 @@
       <c r="G30" s="4">
         <v>8000</v>
       </c>
-      <c r="H30" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-      <c r="J30" s="18" t="s">
+      <c r="H30" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+      <c r="J30" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K30" s="18"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -2128,7 +2128,7 @@
       <c r="G31" s="4">
         <v>18000</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="15">
         <f t="shared" si="0"/>
         <v>65500</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>Igen</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
@@ -2165,19 +2165,19 @@
       <c r="G32" s="4">
         <v>13000</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="15">
         <f t="shared" si="0"/>
         <v>69500</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="18"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>112</v>
       </c>
@@ -2199,19 +2199,19 @@
       <c r="G33" s="4">
         <v>15000</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="J33" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="K33" s="18"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="G34" s="4">
         <v>24000</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="15">
         <f t="shared" si="0"/>
         <v>65500</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -2269,12 +2269,12 @@
       <c r="G35" s="4">
         <v>24000</v>
       </c>
-      <c r="H35" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H35" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -2296,14 +2296,14 @@
       <c r="G36" s="4">
         <v>26000</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="15">
         <f t="shared" si="0"/>
         <v>65500</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -2325,12 +2325,12 @@
       <c r="G37" s="4">
         <v>0</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="15">
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>101</v>
       </c>
@@ -2352,12 +2352,12 @@
       <c r="G38" s="4">
         <v>10000</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="15">
         <f t="shared" si="0"/>
         <v>69500</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
@@ -2379,12 +2379,12 @@
       <c r="G39" s="4">
         <v>6000</v>
       </c>
-      <c r="H39" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H39" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2406,12 +2406,12 @@
       <c r="G40" s="4">
         <v>26000</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="15">
         <f t="shared" si="0"/>
         <v>69500</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
@@ -2433,12 +2433,12 @@
       <c r="G41" s="4">
         <v>0</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="15">
         <f t="shared" si="0"/>
         <v>69500</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
@@ -2460,12 +2460,12 @@
       <c r="G42" s="4">
         <v>23000</v>
       </c>
-      <c r="H42" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H42" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -2487,12 +2487,12 @@
       <c r="G43" s="4">
         <v>16000</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -2514,12 +2514,12 @@
       <c r="G44" s="4">
         <v>13000</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -2541,12 +2541,12 @@
       <c r="G45" s="4">
         <v>27000</v>
       </c>
-      <c r="H45" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H45" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
@@ -2568,12 +2568,12 @@
       <c r="G46" s="4">
         <v>0</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
@@ -2595,12 +2595,12 @@
       <c r="G47" s="4">
         <v>26000</v>
       </c>
-      <c r="H47" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H47" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
@@ -2622,12 +2622,12 @@
       <c r="G48" s="4">
         <v>8000</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="15">
         <f t="shared" si="0"/>
         <v>69500</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
@@ -2649,12 +2649,12 @@
       <c r="G49" s="4">
         <v>28000</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>87</v>
       </c>
@@ -2676,12 +2676,12 @@
       <c r="G50" s="4">
         <v>0</v>
       </c>
-      <c r="H50" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
@@ -2703,12 +2703,12 @@
       <c r="G51" s="4">
         <v>29000</v>
       </c>
-      <c r="H51" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>114</v>
       </c>
@@ -2730,12 +2730,12 @@
       <c r="G52" s="4">
         <v>8000</v>
       </c>
-      <c r="H52" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
@@ -2757,12 +2757,12 @@
       <c r="G53" s="4">
         <v>0</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="15">
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
@@ -2784,12 +2784,12 @@
       <c r="G54" s="4">
         <v>26000</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="15">
         <f t="shared" si="0"/>
         <v>69500</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
@@ -2811,12 +2811,12 @@
       <c r="G55" s="4">
         <v>16000</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>89</v>
       </c>
@@ -2838,12 +2838,12 @@
       <c r="G56" s="4">
         <v>14000</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H56" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -2865,12 +2865,12 @@
       <c r="G57" s="4">
         <v>15000</v>
       </c>
-      <c r="H57" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
@@ -2892,12 +2892,12 @@
       <c r="G58" s="4">
         <v>17000</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H58" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>102</v>
       </c>
@@ -2919,12 +2919,12 @@
       <c r="G59" s="4">
         <v>21000</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H59" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
@@ -2946,12 +2946,12 @@
       <c r="G60" s="4">
         <v>23000</v>
       </c>
-      <c r="H60" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>104</v>
       </c>
@@ -2973,12 +2973,12 @@
       <c r="G61" s="4">
         <v>30000</v>
       </c>
-      <c r="H61" s="19">
+      <c r="H61" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3000,12 +3000,12 @@
       <c r="G62" s="4">
         <v>16000</v>
       </c>
-      <c r="H62" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
@@ -3027,12 +3027,12 @@
       <c r="G63" s="4">
         <v>28000</v>
       </c>
-      <c r="H63" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>85</v>
       </c>
@@ -3054,12 +3054,12 @@
       <c r="G64" s="4">
         <v>19000</v>
       </c>
-      <c r="H64" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
@@ -3081,12 +3081,12 @@
       <c r="G65" s="4">
         <v>14000</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H65" s="15">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>106</v>
       </c>
@@ -3108,12 +3108,12 @@
       <c r="G66" s="4">
         <v>12000</v>
       </c>
-      <c r="H66" s="19">
-        <f t="shared" si="0"/>
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="15">
+        <f t="shared" si="0"/>
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>109</v>
       </c>
@@ -3135,12 +3135,12 @@
       <c r="G67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H67" s="15">
         <f t="shared" ref="H67:H101" si="2">$L$14+$L$15+IF(E67="Igen",$L$16,0)+IF(F67="Igen",$L$18,$L$17)</f>
         <v>65500</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>110</v>
       </c>
@@ -3162,12 +3162,12 @@
       <c r="G68" s="4">
         <v>5000</v>
       </c>
-      <c r="H68" s="19">
+      <c r="H68" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>113</v>
       </c>
@@ -3189,12 +3189,12 @@
       <c r="G69" s="4">
         <v>5000</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H69" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>118</v>
       </c>
@@ -3216,12 +3216,12 @@
       <c r="G70" s="4">
         <v>21000</v>
       </c>
-      <c r="H70" s="19">
+      <c r="H70" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>116</v>
       </c>
@@ -3243,12 +3243,12 @@
       <c r="G71" s="4">
         <v>29000</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H71" s="15">
         <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>100</v>
       </c>
@@ -3270,12 +3270,12 @@
       <c r="G72" s="4">
         <v>27000</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H72" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>121</v>
       </c>
@@ -3297,12 +3297,12 @@
       <c r="G73" s="4">
         <v>0</v>
       </c>
-      <c r="H73" s="19">
+      <c r="H73" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>122</v>
       </c>
@@ -3324,12 +3324,12 @@
       <c r="G74" s="4">
         <v>5000</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H74" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>123</v>
       </c>
@@ -3351,12 +3351,12 @@
       <c r="G75" s="4">
         <v>24000</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H75" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>119</v>
       </c>
@@ -3378,12 +3378,12 @@
       <c r="G76" s="4">
         <v>19000</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H76" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>125</v>
       </c>
@@ -3405,12 +3405,12 @@
       <c r="G77" s="4">
         <v>9000</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H77" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>126</v>
       </c>
@@ -3432,12 +3432,12 @@
       <c r="G78" s="4">
         <v>24000</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H78" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>127</v>
       </c>
@@ -3459,12 +3459,12 @@
       <c r="G79" s="4">
         <v>28000</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H79" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>129</v>
       </c>
@@ -3486,12 +3486,12 @@
       <c r="G80" s="4">
         <v>20000</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80" s="15">
         <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>128</v>
       </c>
@@ -3513,12 +3513,12 @@
       <c r="G81" s="4">
         <v>7000</v>
       </c>
-      <c r="H81" s="19">
+      <c r="H81" s="15">
         <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>131</v>
       </c>
@@ -3540,12 +3540,12 @@
       <c r="G82" s="4">
         <v>15000</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H82" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>132</v>
       </c>
@@ -3567,12 +3567,12 @@
       <c r="G83" s="4">
         <v>7000</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H83" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>174</v>
       </c>
@@ -3594,12 +3594,12 @@
       <c r="G84" s="4">
         <v>9000</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H84" s="15">
         <f t="shared" si="2"/>
         <v>69500</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>98</v>
       </c>
@@ -3621,12 +3621,12 @@
       <c r="G85" s="4">
         <v>5000</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H85" s="15">
         <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -3648,12 +3648,12 @@
       <c r="G86" s="4">
         <v>26000</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H86" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>141</v>
       </c>
@@ -3675,12 +3675,12 @@
       <c r="G87" s="4">
         <v>0</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H87" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>120</v>
       </c>
@@ -3702,12 +3702,12 @@
       <c r="G88" s="4">
         <v>5000</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H88" s="15">
         <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>134</v>
       </c>
@@ -3729,12 +3729,12 @@
       <c r="G89" s="4">
         <v>8000</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H89" s="15">
         <f t="shared" si="2"/>
         <v>69500</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>136</v>
       </c>
@@ -3756,12 +3756,12 @@
       <c r="G90" s="4">
         <v>10000</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H90" s="15">
         <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>137</v>
       </c>
@@ -3783,12 +3783,12 @@
       <c r="G91" s="4">
         <v>19000</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H91" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>135</v>
       </c>
@@ -3810,12 +3810,12 @@
       <c r="G92" s="4">
         <v>10000</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H92" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>138</v>
       </c>
@@ -3837,12 +3837,12 @@
       <c r="G93" s="4">
         <v>15000</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H93" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>72</v>
       </c>
@@ -3864,12 +3864,12 @@
       <c r="G94" s="4">
         <v>9000</v>
       </c>
-      <c r="H94" s="19">
+      <c r="H94" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -3891,12 +3891,12 @@
       <c r="G95" s="4">
         <v>17000</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H95" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>140</v>
       </c>
@@ -3918,12 +3918,12 @@
       <c r="G96" s="4">
         <v>20000</v>
       </c>
-      <c r="H96" s="19">
+      <c r="H96" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>142</v>
       </c>
@@ -3945,12 +3945,12 @@
       <c r="G97" s="4">
         <v>12000</v>
       </c>
-      <c r="H97" s="19">
+      <c r="H97" s="15">
         <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>133</v>
       </c>
@@ -3972,12 +3972,12 @@
       <c r="G98" s="4">
         <v>0</v>
       </c>
-      <c r="H98" s="19">
+      <c r="H98" s="15">
         <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>143</v>
       </c>
@@ -3999,12 +3999,12 @@
       <c r="G99" s="4">
         <v>16000</v>
       </c>
-      <c r="H99" s="19">
+      <c r="H99" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>144</v>
       </c>
@@ -4026,12 +4026,12 @@
       <c r="G100" s="4">
         <v>15000</v>
       </c>
-      <c r="H100" s="19">
+      <c r="H100" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>145</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="G101" s="4">
         <v>17000</v>
       </c>
-      <c r="H101" s="19">
+      <c r="H101" s="15">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
@@ -4063,13 +4063,6 @@
     <sortCondition ref="A101"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="J8:J12"/>
     <mergeCell ref="J14:J18"/>
@@ -4080,6 +4073,13 @@
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
